--- a/src/test/java/testngTeam05/vendorMusteriBilgileri.xlsx
+++ b/src/test/java/testngTeam05/vendorMusteriBilgileri.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_3588FF246082429B62226F78A2A756291657F8C3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66949C7D-FDA5-4F58-BB43-9ADF6CE8D8BB}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>kullaniciAdi</t>
   </si>
@@ -33,28 +34,16 @@
     <t>lastName</t>
   </si>
   <si>
-    <t>musteri1234</t>
-  </si>
-  <si>
-    <t>Ver</t>
-  </si>
-  <si>
     <t>yeni sifre</t>
   </si>
   <si>
-    <t>Allo</t>
-  </si>
-  <si>
-    <t>kullanicimehtap@gmail.com</t>
-  </si>
-  <si>
-    <t>kullanicimehtap</t>
+    <t>zaman</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -107,14 +96,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Ofis Teması">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Ofis">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -152,7 +144,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Ofis">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -224,7 +216,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Ofis">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -397,23 +389,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -430,53 +422,39 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C2" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/java/testngTeam05/vendorMusteriBilgileri.xlsx
+++ b/src/test/java/testngTeam05/vendorMusteriBilgileri.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_3588FF246082429B62226F78A2A756291657F8C3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66949C7D-FDA5-4F58-BB43-9ADF6CE8D8BB}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="11_3588FF246082429B62226F78A2A756291657F8C3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4C75334-535E-42FC-8412-082209944621}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="197">
   <si>
     <t>kullaniciAdi</t>
   </si>
@@ -28,9 +28,6 @@
     <t>email</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>lastName</t>
   </si>
   <si>
@@ -38,24 +35,590 @@
   </si>
   <si>
     <t>zaman</t>
+  </si>
+  <si>
+    <t>Sayfa1</t>
+  </si>
+  <si>
+    <t>verif</t>
+  </si>
+  <si>
+    <t>adryen.samanyu@fixedfor.com</t>
+  </si>
+  <si>
+    <t>772839</t>
+  </si>
+  <si>
+    <t>reprehenderit0426</t>
+  </si>
+  <si>
+    <t>29-07-2023 19:23:33</t>
+  </si>
+  <si>
+    <t>29-07-2023 19:24:23</t>
+  </si>
+  <si>
+    <t>vihan.nuchem@fixedfor.com</t>
+  </si>
+  <si>
+    <t>917485</t>
+  </si>
+  <si>
+    <t>aut7536</t>
+  </si>
+  <si>
+    <t>29-07-2023 19:25:57</t>
+  </si>
+  <si>
+    <t>pablo.jandel@fixedfor.com</t>
+  </si>
+  <si>
+    <t>697421</t>
+  </si>
+  <si>
+    <t>dicta5422</t>
+  </si>
+  <si>
+    <t>29-07-2023 20:00:56</t>
+  </si>
+  <si>
+    <t>jaggar.aragon@fixedfor.com</t>
+  </si>
+  <si>
+    <t>951312</t>
+  </si>
+  <si>
+    <t>amet2681</t>
+  </si>
+  <si>
+    <t>29-07-2023 20:02:57</t>
+  </si>
+  <si>
+    <t>emersen.cora@fixedfor.com</t>
+  </si>
+  <si>
+    <t>350783</t>
+  </si>
+  <si>
+    <t>libero2329</t>
+  </si>
+  <si>
+    <t>29-07-2023 20:07:58</t>
+  </si>
+  <si>
+    <t>korvin.reynolds@fixedfor.com</t>
+  </si>
+  <si>
+    <t>114306</t>
+  </si>
+  <si>
+    <t>quod6778</t>
+  </si>
+  <si>
+    <t>29-07-2023 20:12:03</t>
+  </si>
+  <si>
+    <t>jaxxen.rakan@fixedfor.com</t>
+  </si>
+  <si>
+    <t>926847</t>
+  </si>
+  <si>
+    <t>magnam4024</t>
+  </si>
+  <si>
+    <t>29-07-2023 20:16:52</t>
+  </si>
+  <si>
+    <t>oaken.mordechai@fixedfor.com</t>
+  </si>
+  <si>
+    <t>571423</t>
+  </si>
+  <si>
+    <t>accusantium4338</t>
+  </si>
+  <si>
+    <t>29-07-2023 20:19:37</t>
+  </si>
+  <si>
+    <t>keylor.essex@fixedfor.com</t>
+  </si>
+  <si>
+    <t>537129</t>
+  </si>
+  <si>
+    <t>veniam7883</t>
+  </si>
+  <si>
+    <t>29-07-2023 20:24:28</t>
+  </si>
+  <si>
+    <t>shivam.isse@fixedfor.com</t>
+  </si>
+  <si>
+    <t>381439</t>
+  </si>
+  <si>
+    <t>fugit3586</t>
+  </si>
+  <si>
+    <t>29-07-2023 20:32:07</t>
+  </si>
+  <si>
+    <t>laron.dreyton@fixedfor.com</t>
+  </si>
+  <si>
+    <t>633306</t>
+  </si>
+  <si>
+    <t>eveniet0235</t>
+  </si>
+  <si>
+    <t>29-07-2023 20:36:41</t>
+  </si>
+  <si>
+    <t>kyllian.joeziah@fixedfor.com</t>
+  </si>
+  <si>
+    <t>592806</t>
+  </si>
+  <si>
+    <t>quia1747</t>
+  </si>
+  <si>
+    <t>29-07-2023 20:49:13</t>
+  </si>
+  <si>
+    <t>jaevon.amarey@fixedfor.com</t>
+  </si>
+  <si>
+    <t>431750</t>
+  </si>
+  <si>
+    <t>neque4681</t>
+  </si>
+  <si>
+    <t>29-07-2023 20:51:15</t>
+  </si>
+  <si>
+    <t>chasen.anh@fixedfor.com</t>
+  </si>
+  <si>
+    <t>806883</t>
+  </si>
+  <si>
+    <t>quia1155</t>
+  </si>
+  <si>
+    <t>29-07-2023 20:52:08</t>
+  </si>
+  <si>
+    <t>taylyn.josian@fixedfor.com</t>
+  </si>
+  <si>
+    <t>884359</t>
+  </si>
+  <si>
+    <t>dolorem4253</t>
+  </si>
+  <si>
+    <t>29-07-2023 20:55:16</t>
+  </si>
+  <si>
+    <t>deaglan.alvaro@fixedfor.com</t>
+  </si>
+  <si>
+    <t>616357</t>
+  </si>
+  <si>
+    <t>repellat6049</t>
+  </si>
+  <si>
+    <t>29-07-2023 21:02:46</t>
+  </si>
+  <si>
+    <t>caden.eshawn@fixedfor.com</t>
+  </si>
+  <si>
+    <t>737442</t>
+  </si>
+  <si>
+    <t>earum1081</t>
+  </si>
+  <si>
+    <t>29-07-2023 21:05:17</t>
+  </si>
+  <si>
+    <t>ukiah.linden@fixedfor.com</t>
+  </si>
+  <si>
+    <t>579302</t>
+  </si>
+  <si>
+    <t>et2653</t>
+  </si>
+  <si>
+    <t>29-07-2023 21:06:40</t>
+  </si>
+  <si>
+    <t>shain.nooh@fixedfor.com</t>
+  </si>
+  <si>
+    <t>322835</t>
+  </si>
+  <si>
+    <t>eius9063</t>
+  </si>
+  <si>
+    <t>29-07-2023 21:13:29</t>
+  </si>
+  <si>
+    <t>ziyi.dawit@fixedfor.com</t>
+  </si>
+  <si>
+    <t>269738</t>
+  </si>
+  <si>
+    <t>cupiditate0421</t>
+  </si>
+  <si>
+    <t>29-07-2023 21:18:42</t>
+  </si>
+  <si>
+    <t>diyor.ryker@fixedfor.com</t>
+  </si>
+  <si>
+    <t>367995</t>
+  </si>
+  <si>
+    <t>quod0277</t>
+  </si>
+  <si>
+    <t>29-07-2023 21:22:48</t>
+  </si>
+  <si>
+    <t>kieran.jeromiah@fixedfor.com</t>
+  </si>
+  <si>
+    <t>163634</t>
+  </si>
+  <si>
+    <t>esse8409</t>
+  </si>
+  <si>
+    <t>29-07-2023 21:32:51</t>
+  </si>
+  <si>
+    <t>altin.omarri@fixedfor.com</t>
+  </si>
+  <si>
+    <t>848285</t>
+  </si>
+  <si>
+    <t>dicta4205</t>
+  </si>
+  <si>
+    <t>29-07-2023 21:36:25</t>
+  </si>
+  <si>
+    <t>travion.kenshin@fixedfor.com</t>
+  </si>
+  <si>
+    <t>188656</t>
+  </si>
+  <si>
+    <t>quia0861</t>
+  </si>
+  <si>
+    <t>29-07-2023 21:38:56</t>
+  </si>
+  <si>
+    <t>ilias.atreya@fixedfor.com</t>
+  </si>
+  <si>
+    <t>751318</t>
+  </si>
+  <si>
+    <t>dolorum4826</t>
+  </si>
+  <si>
+    <t>29-07-2023 21:41:03</t>
+  </si>
+  <si>
+    <t>daris.zinedine@fixedfor.com</t>
+  </si>
+  <si>
+    <t>186061</t>
+  </si>
+  <si>
+    <t>pariatur5574</t>
+  </si>
+  <si>
+    <t>29-07-2023 21:42:06</t>
+  </si>
+  <si>
+    <t>nickan.xzaiden@fixedfor.com</t>
+  </si>
+  <si>
+    <t>604294</t>
+  </si>
+  <si>
+    <t>distinctio5092</t>
+  </si>
+  <si>
+    <t>29-07-2023 21:43:28</t>
+  </si>
+  <si>
+    <t>maika.marshun@fixedfor.com</t>
+  </si>
+  <si>
+    <t>400748</t>
+  </si>
+  <si>
+    <t>aperiam5513</t>
+  </si>
+  <si>
+    <t>29-07-2023 21:44:32</t>
+  </si>
+  <si>
+    <t>eytan.kambryn@fixedfor.com</t>
+  </si>
+  <si>
+    <t>401324</t>
+  </si>
+  <si>
+    <t>maxime6338</t>
+  </si>
+  <si>
+    <t>29-07-2023 21:45:59</t>
+  </si>
+  <si>
+    <t>hawkins.akyrie@fixedfor.com</t>
+  </si>
+  <si>
+    <t>521437</t>
+  </si>
+  <si>
+    <t>voluptatibus2832</t>
+  </si>
+  <si>
+    <t>29-07-2023 21:48:00</t>
+  </si>
+  <si>
+    <t>avin.evrett@fixedfor.com</t>
+  </si>
+  <si>
+    <t>455135</t>
+  </si>
+  <si>
+    <t>saepe1200</t>
+  </si>
+  <si>
+    <t>29-07-2023 21:52:13</t>
+  </si>
+  <si>
+    <t>kairi.aydric@fixedfor.com</t>
+  </si>
+  <si>
+    <t>594807</t>
+  </si>
+  <si>
+    <t>assumenda0827</t>
+  </si>
+  <si>
+    <t>29-07-2023 22:05:04</t>
+  </si>
+  <si>
+    <t>karanvir.armoni@fixedfor.com</t>
+  </si>
+  <si>
+    <t>216768</t>
+  </si>
+  <si>
+    <t>libero9916</t>
+  </si>
+  <si>
+    <t>29-07-2023 22:08:23</t>
+  </si>
+  <si>
+    <t>dardan.karas@fixedfor.com</t>
+  </si>
+  <si>
+    <t>830570</t>
+  </si>
+  <si>
+    <t>ipsum4136</t>
+  </si>
+  <si>
+    <t>29-07-2023 22:10:34</t>
+  </si>
+  <si>
+    <t>yosif.rodney@fixedfor.com</t>
+  </si>
+  <si>
+    <t>491502</t>
+  </si>
+  <si>
+    <t>rerum0125</t>
+  </si>
+  <si>
+    <t>29-07-2023 22:11:23</t>
+  </si>
+  <si>
+    <t>29-07-2023 22:15:31</t>
+  </si>
+  <si>
+    <t>sava.kashton@fixedfor.com</t>
+  </si>
+  <si>
+    <t>249860</t>
+  </si>
+  <si>
+    <t>laborum5221</t>
+  </si>
+  <si>
+    <t>29-07-2023 22:16:43</t>
+  </si>
+  <si>
+    <t>taton.antonious@fixedfor.com</t>
+  </si>
+  <si>
+    <t>964986</t>
+  </si>
+  <si>
+    <t>autem7118</t>
+  </si>
+  <si>
+    <t>29-07-2023 22:21:30</t>
+  </si>
+  <si>
+    <t>hennessy.joakim@fixedfor.com</t>
+  </si>
+  <si>
+    <t>194926</t>
+  </si>
+  <si>
+    <t>pariatur1726</t>
+  </si>
+  <si>
+    <t>29-07-2023 22:24:21</t>
+  </si>
+  <si>
+    <t>kmarion.kingsly@fixedfor.com</t>
+  </si>
+  <si>
+    <t>430167</t>
+  </si>
+  <si>
+    <t>recusandae7414</t>
+  </si>
+  <si>
+    <t>29-07-2023 22:28:38</t>
+  </si>
+  <si>
+    <t>mantra.dionte@fixedfor.com</t>
+  </si>
+  <si>
+    <t>768595</t>
+  </si>
+  <si>
+    <t>facere5888</t>
+  </si>
+  <si>
+    <t>29-07-2023 22:30:01</t>
+  </si>
+  <si>
+    <t>bruk.cadien@fixedfor.com</t>
+  </si>
+  <si>
+    <t>678932</t>
+  </si>
+  <si>
+    <t>iusto5628</t>
+  </si>
+  <si>
+    <t>29-07-2023 22:39:05</t>
+  </si>
+  <si>
+    <t>khalon.zadok@fixedfor.com</t>
+  </si>
+  <si>
+    <t>794629</t>
+  </si>
+  <si>
+    <t>velit1438</t>
+  </si>
+  <si>
+    <t>29-07-2023 22:41:25</t>
+  </si>
+  <si>
+    <t>musa.jameson@fixedfor.com</t>
+  </si>
+  <si>
+    <t>707855</t>
+  </si>
+  <si>
+    <t>explicabo4834</t>
+  </si>
+  <si>
+    <t>29-07-2023 22:43:33</t>
+  </si>
+  <si>
+    <t>eymen.vaylen@fixedfor.com</t>
+  </si>
+  <si>
+    <t>549409</t>
+  </si>
+  <si>
+    <t>voluptatibus4010</t>
+  </si>
+  <si>
+    <t>29-07-2023 22:47:28</t>
+  </si>
+  <si>
+    <t>trooper.lewis@fixedfor.com</t>
+  </si>
+  <si>
+    <t>186854</t>
+  </si>
+  <si>
+    <t>exercitationem2373</t>
+  </si>
+  <si>
+    <t>29-07-2023 22:48:47</t>
+  </si>
+  <si>
+    <t>justino.zadok@fixedfor.com</t>
+  </si>
+  <si>
+    <t>123744</t>
+  </si>
+  <si>
+    <t>officia3449</t>
+  </si>
+  <si>
+    <t>29-07-2023 22:57:58</t>
+  </si>
+  <si>
+    <t>geronimo.ashvik@fixedfor.com</t>
+  </si>
+  <si>
+    <t>822544</t>
+  </si>
+  <si>
+    <t>nemo4704</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -78,16 +641,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Köprü" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -393,43 +953,65 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
-    <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.33203125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.33203125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="28.5546875"/>
+    <col min="4" max="4" customWidth="true" width="15.33203125"/>
+    <col min="5" max="5" customWidth="true" width="13.33203125"/>
+    <col min="6" max="6" customWidth="true" width="14.88671875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s" s="0">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C2" s="1"/>
+      <c r="A2" s="0">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="E2" s="0">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>196</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/java/testngTeam05/vendorMusteriBilgileri.xlsx
+++ b/src/test/java/testngTeam05/vendorMusteriBilgileri.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t>kullaniciAdi</t>
   </si>
@@ -92,6 +92,57 @@
   </si>
   <si>
     <t>2042918949581</t>
+  </si>
+  <si>
+    <t>30-07-2023 03:19:30</t>
+  </si>
+  <si>
+    <t>tayvian.sayid@fixedfor.com</t>
+  </si>
+  <si>
+    <t>511418</t>
+  </si>
+  <si>
+    <t>nihil4030</t>
+  </si>
+  <si>
+    <t>30-07-2023 12:17:21</t>
+  </si>
+  <si>
+    <t>paxtyn.yusuf@fixedfor.com</t>
+  </si>
+  <si>
+    <t>196933</t>
+  </si>
+  <si>
+    <t>consectetur3856</t>
+  </si>
+  <si>
+    <t>30-07-2023 12:20:46</t>
+  </si>
+  <si>
+    <t>brantleigh.blade@fixedfor.com</t>
+  </si>
+  <si>
+    <t>175585</t>
+  </si>
+  <si>
+    <t>voluptatem6437</t>
+  </si>
+  <si>
+    <t>30-07-2023 12:23:18</t>
+  </si>
+  <si>
+    <t>marcel.archie@fixedfor.com</t>
+  </si>
+  <si>
+    <t>914264</t>
+  </si>
+  <si>
+    <t>rerum4950</t>
+  </si>
+  <si>
+    <t>0653924870237</t>
   </si>
 </sst>
 </file>
@@ -479,22 +530,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="E2" s="0">
         <v>4</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/testngTeam05/vendorMusteriBilgileri.xlsx
+++ b/src/test/java/testngTeam05/vendorMusteriBilgileri.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
   <si>
     <t>kullaniciAdi</t>
   </si>
@@ -143,6 +143,21 @@
   </si>
   <si>
     <t>0653924870237</t>
+  </si>
+  <si>
+    <t>30-07-2023 17:12:05</t>
+  </si>
+  <si>
+    <t>zadkiel.santonio@fixedfor.com</t>
+  </si>
+  <si>
+    <t>318582</t>
+  </si>
+  <si>
+    <t>eius4425</t>
+  </si>
+  <si>
+    <t>3940133011924</t>
   </si>
 </sst>
 </file>
@@ -530,22 +545,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E2" s="0">
         <v>4</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/testngTeam05/vendorMusteriBilgileri.xlsx
+++ b/src/test/java/testngTeam05/vendorMusteriBilgileri.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="214">
   <si>
     <t>kullaniciAdi</t>
   </si>
@@ -158,6 +158,507 @@
   </si>
   <si>
     <t>3940133011924</t>
+  </si>
+  <si>
+    <t>30-07-2023 17:18:38</t>
+  </si>
+  <si>
+    <t>lucio.jeramie@fixedfor.com</t>
+  </si>
+  <si>
+    <t>299907</t>
+  </si>
+  <si>
+    <t>pariatur7607</t>
+  </si>
+  <si>
+    <t>30-07-2023 17:20:29</t>
+  </si>
+  <si>
+    <t>kreed.braidyn@fixedfor.com</t>
+  </si>
+  <si>
+    <t>372688</t>
+  </si>
+  <si>
+    <t>fuga3046</t>
+  </si>
+  <si>
+    <t>30-07-2023 17:39:57</t>
+  </si>
+  <si>
+    <t>daly.wayde@fixedfor.com</t>
+  </si>
+  <si>
+    <t>608684</t>
+  </si>
+  <si>
+    <t>mollitia9407</t>
+  </si>
+  <si>
+    <t>30-07-2023 18:47:49</t>
+  </si>
+  <si>
+    <t>jahaun.tam@fixedfor.com</t>
+  </si>
+  <si>
+    <t>894090</t>
+  </si>
+  <si>
+    <t>accusamus0714</t>
+  </si>
+  <si>
+    <t>2193335002264</t>
+  </si>
+  <si>
+    <t>30-07-2023 18:53:59</t>
+  </si>
+  <si>
+    <t>amilio.frantz@fixedfor.com</t>
+  </si>
+  <si>
+    <t>377883</t>
+  </si>
+  <si>
+    <t>exercitationem4241</t>
+  </si>
+  <si>
+    <t>6615475946605</t>
+  </si>
+  <si>
+    <t>30-07-2023 18:58:20</t>
+  </si>
+  <si>
+    <t>faustino.shivraj@fixedfor.com</t>
+  </si>
+  <si>
+    <t>591621</t>
+  </si>
+  <si>
+    <t>animi6850</t>
+  </si>
+  <si>
+    <t>5366467066252</t>
+  </si>
+  <si>
+    <t>30-07-2023 19:06:33</t>
+  </si>
+  <si>
+    <t>erlin.angello@fixedfor.com</t>
+  </si>
+  <si>
+    <t>986828</t>
+  </si>
+  <si>
+    <t>quasi7450</t>
+  </si>
+  <si>
+    <t>30-07-2023 19:10:35</t>
+  </si>
+  <si>
+    <t>arash.ameir@fixedfor.com</t>
+  </si>
+  <si>
+    <t>234465</t>
+  </si>
+  <si>
+    <t>repellat0892</t>
+  </si>
+  <si>
+    <t>9586267805011</t>
+  </si>
+  <si>
+    <t>30-07-2023 19:33:43</t>
+  </si>
+  <si>
+    <t>aakash.jaymison@fixedfor.com</t>
+  </si>
+  <si>
+    <t>30-07-2023 19:34:21</t>
+  </si>
+  <si>
+    <t>dominus.dewayne@fixedfor.com</t>
+  </si>
+  <si>
+    <t>844509</t>
+  </si>
+  <si>
+    <t>eos9587</t>
+  </si>
+  <si>
+    <t>30-07-2023 19:35:25</t>
+  </si>
+  <si>
+    <t>30-07-2023 19:35:38</t>
+  </si>
+  <si>
+    <t>leeland.jari@fixedfor.com</t>
+  </si>
+  <si>
+    <t>459082</t>
+  </si>
+  <si>
+    <t>nobis0874</t>
+  </si>
+  <si>
+    <t>3175355323788</t>
+  </si>
+  <si>
+    <t>30-07-2023 19:53:04</t>
+  </si>
+  <si>
+    <t>revanth.ivo@fixedfor.com</t>
+  </si>
+  <si>
+    <t>265803</t>
+  </si>
+  <si>
+    <t>expedita5594</t>
+  </si>
+  <si>
+    <t>30-07-2023 19:53:58</t>
+  </si>
+  <si>
+    <t>azaryah.manning@fixedfor.com</t>
+  </si>
+  <si>
+    <t>595206</t>
+  </si>
+  <si>
+    <t>mollitia6252</t>
+  </si>
+  <si>
+    <t>7637236803360</t>
+  </si>
+  <si>
+    <t>30-07-2023 19:57:10</t>
+  </si>
+  <si>
+    <t>zacarri.journey@fixedfor.com</t>
+  </si>
+  <si>
+    <t>482015</t>
+  </si>
+  <si>
+    <t>adipisci0104</t>
+  </si>
+  <si>
+    <t>8322874596215</t>
+  </si>
+  <si>
+    <t>30-07-2023 19:59:54</t>
+  </si>
+  <si>
+    <t>treyvon.brendyn@fixedfor.com</t>
+  </si>
+  <si>
+    <t>30-07-2023 20:00:55</t>
+  </si>
+  <si>
+    <t>angelito.cyprian@fixedfor.com</t>
+  </si>
+  <si>
+    <t>860091</t>
+  </si>
+  <si>
+    <t>et0767</t>
+  </si>
+  <si>
+    <t>30-07-2023 20:02:45</t>
+  </si>
+  <si>
+    <t>caspar.mohamed@fixedfor.com</t>
+  </si>
+  <si>
+    <t>599979</t>
+  </si>
+  <si>
+    <t>eius1781</t>
+  </si>
+  <si>
+    <t>3079080878189</t>
+  </si>
+  <si>
+    <t>30-07-2023 20:07:55</t>
+  </si>
+  <si>
+    <t>akyrie.west@fixedfor.com</t>
+  </si>
+  <si>
+    <t>877422</t>
+  </si>
+  <si>
+    <t>corrupti8415</t>
+  </si>
+  <si>
+    <t>30-07-2023 20:09:02</t>
+  </si>
+  <si>
+    <t>ramsay.ayron@fixedfor.com</t>
+  </si>
+  <si>
+    <t>945046</t>
+  </si>
+  <si>
+    <t>quia3542</t>
+  </si>
+  <si>
+    <t>4037938295372</t>
+  </si>
+  <si>
+    <t>30-07-2023 20:17:00</t>
+  </si>
+  <si>
+    <t>kainoa.qaiden@fixedfor.com</t>
+  </si>
+  <si>
+    <t>250658</t>
+  </si>
+  <si>
+    <t>mollitia3870</t>
+  </si>
+  <si>
+    <t>30-07-2023 20:18:22</t>
+  </si>
+  <si>
+    <t>lander.trayden@fixedfor.com</t>
+  </si>
+  <si>
+    <t>830642</t>
+  </si>
+  <si>
+    <t>quisquam2493</t>
+  </si>
+  <si>
+    <t>2978441710285</t>
+  </si>
+  <si>
+    <t>30-07-2023 20:28:00</t>
+  </si>
+  <si>
+    <t>boden.sven@fixedfor.com</t>
+  </si>
+  <si>
+    <t>485524</t>
+  </si>
+  <si>
+    <t>veniam1230</t>
+  </si>
+  <si>
+    <t>30-07-2023 20:29:13</t>
+  </si>
+  <si>
+    <t>dontarius.fahad@fixedfor.com</t>
+  </si>
+  <si>
+    <t>319818</t>
+  </si>
+  <si>
+    <t>esse5084</t>
+  </si>
+  <si>
+    <t>30-07-2023 20:30:24</t>
+  </si>
+  <si>
+    <t>jackston.skyden@fixedfor.com</t>
+  </si>
+  <si>
+    <t>181064</t>
+  </si>
+  <si>
+    <t>molestiae2014</t>
+  </si>
+  <si>
+    <t>4263455792944</t>
+  </si>
+  <si>
+    <t>30-07-2023 20:32:35</t>
+  </si>
+  <si>
+    <t>olly.rikuto@fixedfor.com</t>
+  </si>
+  <si>
+    <t>738570</t>
+  </si>
+  <si>
+    <t>velit0368</t>
+  </si>
+  <si>
+    <t>4677355377727</t>
+  </si>
+  <si>
+    <t>30-07-2023 20:39:35</t>
+  </si>
+  <si>
+    <t>jadin.liang@fixedfor.com</t>
+  </si>
+  <si>
+    <t>892119</t>
+  </si>
+  <si>
+    <t>fugiat3530</t>
+  </si>
+  <si>
+    <t>1447324344769</t>
+  </si>
+  <si>
+    <t>30-07-2023 20:43:42</t>
+  </si>
+  <si>
+    <t>eli.leelynn@fixedfor.com</t>
+  </si>
+  <si>
+    <t>897965</t>
+  </si>
+  <si>
+    <t>optio3893</t>
+  </si>
+  <si>
+    <t>30-07-2023 20:44:37</t>
+  </si>
+  <si>
+    <t>jazier.lazarius@fixedfor.com</t>
+  </si>
+  <si>
+    <t>470598</t>
+  </si>
+  <si>
+    <t>incidunt3446</t>
+  </si>
+  <si>
+    <t>1544923092814</t>
+  </si>
+  <si>
+    <t>30-07-2023 20:47:50</t>
+  </si>
+  <si>
+    <t>imran.larue@fixedfor.com</t>
+  </si>
+  <si>
+    <t>297476</t>
+  </si>
+  <si>
+    <t>facere0131</t>
+  </si>
+  <si>
+    <t>4442174285917</t>
+  </si>
+  <si>
+    <t>30-07-2023 21:03:20</t>
+  </si>
+  <si>
+    <t>kamoni.dal@fixedfor.com</t>
+  </si>
+  <si>
+    <t>599637</t>
+  </si>
+  <si>
+    <t>qui0934</t>
+  </si>
+  <si>
+    <t>30-07-2023 21:04:30</t>
+  </si>
+  <si>
+    <t>pacey.chrishawn@fixedfor.com</t>
+  </si>
+  <si>
+    <t>868643</t>
+  </si>
+  <si>
+    <t>consequatur8700</t>
+  </si>
+  <si>
+    <t>5620882038219</t>
+  </si>
+  <si>
+    <t>30-07-2023 21:06:07</t>
+  </si>
+  <si>
+    <t>janoah.sathvik@fixedfor.com</t>
+  </si>
+  <si>
+    <t>218596</t>
+  </si>
+  <si>
+    <t>alias3170</t>
+  </si>
+  <si>
+    <t>6018471562259</t>
+  </si>
+  <si>
+    <t>30-07-2023 21:09:36</t>
+  </si>
+  <si>
+    <t>vishaan.owynn@fixedfor.com</t>
+  </si>
+  <si>
+    <t>537131</t>
+  </si>
+  <si>
+    <t>voluptatem6345</t>
+  </si>
+  <si>
+    <t>2348494848165</t>
+  </si>
+  <si>
+    <t>30-07-2023 21:14:04</t>
+  </si>
+  <si>
+    <t>avitaj.christoper@fixedfor.com</t>
+  </si>
+  <si>
+    <t>827492</t>
+  </si>
+  <si>
+    <t>dolore2751</t>
+  </si>
+  <si>
+    <t>3814544147223</t>
+  </si>
+  <si>
+    <t>30-07-2023 21:19:33</t>
+  </si>
+  <si>
+    <t>ziv.rushton@fixedfor.com</t>
+  </si>
+  <si>
+    <t>937152</t>
+  </si>
+  <si>
+    <t>quaerat2625</t>
+  </si>
+  <si>
+    <t>5035455320965</t>
+  </si>
+  <si>
+    <t>30-07-2023 21:33:18</t>
+  </si>
+  <si>
+    <t>blane.sivan@fixedfor.com</t>
+  </si>
+  <si>
+    <t>144628</t>
+  </si>
+  <si>
+    <t>minima0737</t>
+  </si>
+  <si>
+    <t>8263042732816</t>
+  </si>
+  <si>
+    <t>30-07-2023 21:36:41</t>
+  </si>
+  <si>
+    <t>arliss.masir@fixedfor.com</t>
+  </si>
+  <si>
+    <t>282340</t>
+  </si>
+  <si>
+    <t>nisi9155</t>
+  </si>
+  <si>
+    <t>8345556367828</t>
   </si>
 </sst>
 </file>
@@ -545,22 +1046,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>45</v>
+        <v>212</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>43</v>
+        <v>210</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>44</v>
+        <v>211</v>
       </c>
       <c r="E2" s="0">
         <v>4</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>46</v>
+        <v>213</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>45</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/testngTeam05/vendorMusteriBilgileri.xlsx
+++ b/src/test/java/testngTeam05/vendorMusteriBilgileri.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="248">
   <si>
     <t>kullaniciAdi</t>
   </si>
@@ -659,6 +659,108 @@
   </si>
   <si>
     <t>8345556367828</t>
+  </si>
+  <si>
+    <t>31-07-2023 20:44:09</t>
+  </si>
+  <si>
+    <t>kalel.fouad@fixedfor.com</t>
+  </si>
+  <si>
+    <t>31-07-2023 20:45:36</t>
+  </si>
+  <si>
+    <t>larue.deacan@fixedfor.com</t>
+  </si>
+  <si>
+    <t>258828</t>
+  </si>
+  <si>
+    <t>quos8383</t>
+  </si>
+  <si>
+    <t>01-08-2023 19:41:22</t>
+  </si>
+  <si>
+    <t>axzel.rihansh@fixedfor.com</t>
+  </si>
+  <si>
+    <t>794659</t>
+  </si>
+  <si>
+    <t>debitis3644</t>
+  </si>
+  <si>
+    <t>01-08-2023 19:43:27</t>
+  </si>
+  <si>
+    <t>javeion.iziah@fixedfor.com</t>
+  </si>
+  <si>
+    <t>610858</t>
+  </si>
+  <si>
+    <t>earum1547</t>
+  </si>
+  <si>
+    <t>03-08-2023 18:53:56</t>
+  </si>
+  <si>
+    <t>kameryn.murray@fixedfor.com</t>
+  </si>
+  <si>
+    <t>189433</t>
+  </si>
+  <si>
+    <t>soluta7318</t>
+  </si>
+  <si>
+    <t>03-08-2023 19:51:42</t>
+  </si>
+  <si>
+    <t>roman.tyrese@fixedfor.com</t>
+  </si>
+  <si>
+    <t>825471</t>
+  </si>
+  <si>
+    <t>quis1791</t>
+  </si>
+  <si>
+    <t>03-08-2023 20:26:12</t>
+  </si>
+  <si>
+    <t>baruc.jaycean@fixedfor.com</t>
+  </si>
+  <si>
+    <t>749720</t>
+  </si>
+  <si>
+    <t>laudantium3914</t>
+  </si>
+  <si>
+    <t>03-08-2023 20:27:05</t>
+  </si>
+  <si>
+    <t>georgiy.addington@fixedfor.com</t>
+  </si>
+  <si>
+    <t>842769</t>
+  </si>
+  <si>
+    <t>natus8849</t>
+  </si>
+  <si>
+    <t>03-08-2023 21:24:26</t>
+  </si>
+  <si>
+    <t>quintrell.dominique@fixedfor.com</t>
+  </si>
+  <si>
+    <t>607938</t>
+  </si>
+  <si>
+    <t>nostrum8884</t>
   </si>
 </sst>
 </file>
@@ -1046,13 +1148,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>212</v>
+        <v>247</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>210</v>
+        <v>245</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="E2" s="0">
         <v>4</v>
@@ -1061,7 +1163,7 @@
         <v>213</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>212</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/testngTeam05/vendorMusteriBilgileri.xlsx
+++ b/src/test/java/testngTeam05/vendorMusteriBilgileri.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="284">
   <si>
     <t>kullaniciAdi</t>
   </si>
@@ -761,6 +761,114 @@
   </si>
   <si>
     <t>nostrum8884</t>
+  </si>
+  <si>
+    <t>04-08-2023 17:44:08</t>
+  </si>
+  <si>
+    <t>ronav.brax@fixedfor.com</t>
+  </si>
+  <si>
+    <t>650734</t>
+  </si>
+  <si>
+    <t>voluptas7993</t>
+  </si>
+  <si>
+    <t>04-08-2023 17:49:33</t>
+  </si>
+  <si>
+    <t>abeer.jaxx@fixedfor.com</t>
+  </si>
+  <si>
+    <t>259182</t>
+  </si>
+  <si>
+    <t>nobis7403</t>
+  </si>
+  <si>
+    <t>04-08-2023 17:52:34</t>
+  </si>
+  <si>
+    <t>shiya.linkoln@fixedfor.com</t>
+  </si>
+  <si>
+    <t>456886</t>
+  </si>
+  <si>
+    <t>nihil7715</t>
+  </si>
+  <si>
+    <t>04-08-2023 17:56:00</t>
+  </si>
+  <si>
+    <t>dathan.kirian@fixedfor.com</t>
+  </si>
+  <si>
+    <t>349236</t>
+  </si>
+  <si>
+    <t>occaecati2805</t>
+  </si>
+  <si>
+    <t>traevion.junaid@fixedfor.com</t>
+  </si>
+  <si>
+    <t>itiel.elison@fixedfor.com</t>
+  </si>
+  <si>
+    <t>haizen.merek@fixedfor.com</t>
+  </si>
+  <si>
+    <t>isileli.sanjay@fixedfor.com</t>
+  </si>
+  <si>
+    <t>archimedes.taylan@fixedfor.com</t>
+  </si>
+  <si>
+    <t>avry.demarious@fixedfor.com</t>
+  </si>
+  <si>
+    <t>kaizen.kaylum@fixedfor.com</t>
+  </si>
+  <si>
+    <t>xzavior.moss@fixedfor.com</t>
+  </si>
+  <si>
+    <t>alen.johnpaul@fixedfor.com</t>
+  </si>
+  <si>
+    <t>shakeem.jiles@fixedfor.com</t>
+  </si>
+  <si>
+    <t>maximus.caide@fixedfor.com</t>
+  </si>
+  <si>
+    <t>sadarius.dzenan@fixedfor.com</t>
+  </si>
+  <si>
+    <t>denahi.dominus@fixedfor.com</t>
+  </si>
+  <si>
+    <t>jshawn.daevion@fixedfor.com</t>
+  </si>
+  <si>
+    <t>devron.payden@fixedfor.com</t>
+  </si>
+  <si>
+    <t>aldrik.katai@fixedfor.com</t>
+  </si>
+  <si>
+    <t>skylen.denton@fixedfor.com</t>
+  </si>
+  <si>
+    <t>franko.prabhnoor@fixedfor.com</t>
+  </si>
+  <si>
+    <t>quashawn.jakylen@fixedfor.com</t>
+  </si>
+  <si>
+    <t>eryk.saheed@fixedfor.com</t>
   </si>
 </sst>
 </file>
@@ -1148,13 +1256,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>245</v>
+        <v>283</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="E2" s="0">
         <v>4</v>
@@ -1163,7 +1271,7 @@
         <v>213</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>247</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/testngTeam05/vendorMusteriBilgileri.xlsx
+++ b/src/test/java/testngTeam05/vendorMusteriBilgileri.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="285">
   <si>
     <t>kullaniciAdi</t>
   </si>
@@ -869,6 +869,9 @@
   </si>
   <si>
     <t>eryk.saheed@fixedfor.com</t>
+  </si>
+  <si>
+    <t>karver.abenezer@fixedfor.com</t>
   </si>
 </sst>
 </file>
@@ -1259,7 +1262,7 @@
         <v>263</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D2" t="s" s="0">
         <v>262</v>

--- a/src/test/java/testngTeam05/vendorMusteriBilgileri.xlsx
+++ b/src/test/java/testngTeam05/vendorMusteriBilgileri.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="597">
   <si>
     <t>kullaniciAdi</t>
   </si>
@@ -872,6 +872,942 @@
   </si>
   <si>
     <t>karver.abenezer@fixedfor.com</t>
+  </si>
+  <si>
+    <t>magdaleno.josemiguel@fixedfor.com</t>
+  </si>
+  <si>
+    <t>04-08-2023 23:30:59</t>
+  </si>
+  <si>
+    <t>knixon.lennard@fixedfor.com</t>
+  </si>
+  <si>
+    <t>876751</t>
+  </si>
+  <si>
+    <t>sunt0720</t>
+  </si>
+  <si>
+    <t>04-08-2023 23:35:02</t>
+  </si>
+  <si>
+    <t>zayne.adhav@fixedfor.com</t>
+  </si>
+  <si>
+    <t>900532</t>
+  </si>
+  <si>
+    <t>04-08-2023 23:38:18</t>
+  </si>
+  <si>
+    <t>kvon.hart@fixedfor.com</t>
+  </si>
+  <si>
+    <t>839822</t>
+  </si>
+  <si>
+    <t>aju&amp;d5Z@c391</t>
+  </si>
+  <si>
+    <t>4543750526254</t>
+  </si>
+  <si>
+    <t>thorsten.kristiano@fixedfor.com</t>
+  </si>
+  <si>
+    <t>deagan.kahli@fixedfor.com</t>
+  </si>
+  <si>
+    <t>05-08-2023 16:46:50</t>
+  </si>
+  <si>
+    <t>emmet.colbe@fixedfor.com</t>
+  </si>
+  <si>
+    <t>562160</t>
+  </si>
+  <si>
+    <t>MF@6-%PBSX!A</t>
+  </si>
+  <si>
+    <t>8855163099048</t>
+  </si>
+  <si>
+    <t>05-08-2023 16:52:24</t>
+  </si>
+  <si>
+    <t>bronner.daxston@fixedfor.com</t>
+  </si>
+  <si>
+    <t>218879</t>
+  </si>
+  <si>
+    <t>dQ6!Z&lt;&amp;+G%Dp</t>
+  </si>
+  <si>
+    <t>05-08-2023 16:53:43</t>
+  </si>
+  <si>
+    <t>jahkeem.newton@fixedfor.com</t>
+  </si>
+  <si>
+    <t>387279</t>
+  </si>
+  <si>
+    <t>nW=2JYS?vE6X</t>
+  </si>
+  <si>
+    <t>5995993131037</t>
+  </si>
+  <si>
+    <t>05-08-2023 17:09:01</t>
+  </si>
+  <si>
+    <t>aymen.dzenan@fixedfor.com</t>
+  </si>
+  <si>
+    <t>312466</t>
+  </si>
+  <si>
+    <t>+5H#_ls0m-%N</t>
+  </si>
+  <si>
+    <t>8558166010767</t>
+  </si>
+  <si>
+    <t>05-08-2023 17:14:07</t>
+  </si>
+  <si>
+    <t>jodeci.garrick@fixedfor.com</t>
+  </si>
+  <si>
+    <t>509446</t>
+  </si>
+  <si>
+    <t>1S2?g?*qxEpM</t>
+  </si>
+  <si>
+    <t>05-08-2023 17:16:28</t>
+  </si>
+  <si>
+    <t>whitfield.tekoa@fixedfor.com</t>
+  </si>
+  <si>
+    <t>626696</t>
+  </si>
+  <si>
+    <t>LB$j_^0)uJre</t>
+  </si>
+  <si>
+    <t>5706092684696</t>
+  </si>
+  <si>
+    <t>05-08-2023 17:20:25</t>
+  </si>
+  <si>
+    <t>ion.daksh@fixedfor.com</t>
+  </si>
+  <si>
+    <t>994147</t>
+  </si>
+  <si>
+    <t>05-08-2023 17:23:08</t>
+  </si>
+  <si>
+    <t>maxi.ansel@fixedfor.com</t>
+  </si>
+  <si>
+    <t>467192</t>
+  </si>
+  <si>
+    <t>pws8EBYSn+Fg</t>
+  </si>
+  <si>
+    <t>4240751510496</t>
+  </si>
+  <si>
+    <t>05-08-2023 17:24:49</t>
+  </si>
+  <si>
+    <t>baze.renardo@fixedfor.com</t>
+  </si>
+  <si>
+    <t>276456</t>
+  </si>
+  <si>
+    <t>#W?-)8zKYAT=</t>
+  </si>
+  <si>
+    <t>1729693287428</t>
+  </si>
+  <si>
+    <t>05-08-2023 17:26:33</t>
+  </si>
+  <si>
+    <t>coley.rostam@fixedfor.com</t>
+  </si>
+  <si>
+    <t>202194</t>
+  </si>
+  <si>
+    <t>)jaQ^5h$RTLP</t>
+  </si>
+  <si>
+    <t>3371276757422</t>
+  </si>
+  <si>
+    <t>05-08-2023 17:28:18</t>
+  </si>
+  <si>
+    <t>abe.bowen@fixedfor.com</t>
+  </si>
+  <si>
+    <t>459203</t>
+  </si>
+  <si>
+    <t>3GoQAghfn?u1</t>
+  </si>
+  <si>
+    <t>1646714906277</t>
+  </si>
+  <si>
+    <t>05-08-2023 17:29:51</t>
+  </si>
+  <si>
+    <t>zaiyden.jt@fixedfor.com</t>
+  </si>
+  <si>
+    <t>792615</t>
+  </si>
+  <si>
+    <t>ilZjNA5(Y@-#</t>
+  </si>
+  <si>
+    <t>9289336337580</t>
+  </si>
+  <si>
+    <t>05-08-2023 17:31:23</t>
+  </si>
+  <si>
+    <t>taron.amer@fixedfor.com</t>
+  </si>
+  <si>
+    <t>202451</t>
+  </si>
+  <si>
+    <t>NuPvE75b&lt;/B=</t>
+  </si>
+  <si>
+    <t>3082660950656</t>
+  </si>
+  <si>
+    <t>05-08-2023 17:34:09</t>
+  </si>
+  <si>
+    <t>doss.whit@fixedfor.com</t>
+  </si>
+  <si>
+    <t>660909</t>
+  </si>
+  <si>
+    <t>zEC3Wj=IN!11</t>
+  </si>
+  <si>
+    <t>1643098466458</t>
+  </si>
+  <si>
+    <t>05-08-2023 17:36:21</t>
+  </si>
+  <si>
+    <t>daymen.ramsey@fixedfor.com</t>
+  </si>
+  <si>
+    <t>979550</t>
+  </si>
+  <si>
+    <t>/OUVph1$OU&gt;g</t>
+  </si>
+  <si>
+    <t>1761424370726</t>
+  </si>
+  <si>
+    <t>05-08-2023 17:38:39</t>
+  </si>
+  <si>
+    <t>khamron.hatem@fixedfor.com</t>
+  </si>
+  <si>
+    <t>257541</t>
+  </si>
+  <si>
+    <t>QZZbaBLw#*)X</t>
+  </si>
+  <si>
+    <t>1665805058282</t>
+  </si>
+  <si>
+    <t>05-08-2023 17:40:56</t>
+  </si>
+  <si>
+    <t>chip.nasr@fixedfor.com</t>
+  </si>
+  <si>
+    <t>760936</t>
+  </si>
+  <si>
+    <t>_pdYIq0@0%J0</t>
+  </si>
+  <si>
+    <t>05-08-2023 17:43:43</t>
+  </si>
+  <si>
+    <t>kymiere.zoey@fixedfor.com</t>
+  </si>
+  <si>
+    <t>186379</t>
+  </si>
+  <si>
+    <t>jxS=qSRn@rMh</t>
+  </si>
+  <si>
+    <t>7157204137827</t>
+  </si>
+  <si>
+    <t>05-08-2023 17:45:54</t>
+  </si>
+  <si>
+    <t>sota.brodi@fixedfor.com</t>
+  </si>
+  <si>
+    <t>223192</t>
+  </si>
+  <si>
+    <t>D0ln0aa)DD9s</t>
+  </si>
+  <si>
+    <t>0835194211174</t>
+  </si>
+  <si>
+    <t>05-08-2023 17:48:03</t>
+  </si>
+  <si>
+    <t>harlo.tayvion@fixedfor.com</t>
+  </si>
+  <si>
+    <t>240061</t>
+  </si>
+  <si>
+    <t>(jfk7DvujqBk</t>
+  </si>
+  <si>
+    <t>05-08-2023 17:49:21</t>
+  </si>
+  <si>
+    <t>jerald.tiago@fixedfor.com</t>
+  </si>
+  <si>
+    <t>250667</t>
+  </si>
+  <si>
+    <t>CXszQY&lt;7b?&amp;v</t>
+  </si>
+  <si>
+    <t>05-08-2023 17:50:55</t>
+  </si>
+  <si>
+    <t>aryaman.cash@fixedfor.com</t>
+  </si>
+  <si>
+    <t>667148</t>
+  </si>
+  <si>
+    <t>3ea*bSnObmt#</t>
+  </si>
+  <si>
+    <t>1756444582914</t>
+  </si>
+  <si>
+    <t>05-08-2023 17:53:15</t>
+  </si>
+  <si>
+    <t>takari.chriss@fixedfor.com</t>
+  </si>
+  <si>
+    <t>502396</t>
+  </si>
+  <si>
+    <t>4Kb1Tndp5#BR</t>
+  </si>
+  <si>
+    <t>6321038769030</t>
+  </si>
+  <si>
+    <t>05-08-2023 17:55:12</t>
+  </si>
+  <si>
+    <t>dezmond.olumide@fixedfor.com</t>
+  </si>
+  <si>
+    <t>334918</t>
+  </si>
+  <si>
+    <t>3JWH?FrCz^wO</t>
+  </si>
+  <si>
+    <t>9940715647774</t>
+  </si>
+  <si>
+    <t>05-08-2023 18:00:53</t>
+  </si>
+  <si>
+    <t>alexandro.naftoli@fixedfor.com</t>
+  </si>
+  <si>
+    <t>705424</t>
+  </si>
+  <si>
+    <t>Twc%wj*F9&lt;J2</t>
+  </si>
+  <si>
+    <t>6601917729448</t>
+  </si>
+  <si>
+    <t>05-08-2023 18:03:45</t>
+  </si>
+  <si>
+    <t>olli.sheffield@fixedfor.com</t>
+  </si>
+  <si>
+    <t>732724</t>
+  </si>
+  <si>
+    <t>Rg1WU518G5Q3</t>
+  </si>
+  <si>
+    <t>1669323253563</t>
+  </si>
+  <si>
+    <t>05-08-2023 18:05:48</t>
+  </si>
+  <si>
+    <t>jerrell.haston@fixedfor.com</t>
+  </si>
+  <si>
+    <t>996963</t>
+  </si>
+  <si>
+    <t>F%/LQSHPJumB</t>
+  </si>
+  <si>
+    <t>3282099901346</t>
+  </si>
+  <si>
+    <t>05-08-2023 18:07:41</t>
+  </si>
+  <si>
+    <t>jin.damean@fixedfor.com</t>
+  </si>
+  <si>
+    <t>891627</t>
+  </si>
+  <si>
+    <t>D@At%ACKi9cx</t>
+  </si>
+  <si>
+    <t>05-08-2023 18:09:48</t>
+  </si>
+  <si>
+    <t>amari.day@fixedfor.com</t>
+  </si>
+  <si>
+    <t>247025</t>
+  </si>
+  <si>
+    <t>eEsa&amp;x=oH1Ie</t>
+  </si>
+  <si>
+    <t>6383244036986</t>
+  </si>
+  <si>
+    <t>05-08-2023 18:13:42</t>
+  </si>
+  <si>
+    <t>farron.ousmane@fixedfor.com</t>
+  </si>
+  <si>
+    <t>719589</t>
+  </si>
+  <si>
+    <t>Pyk$=sd(FqvX</t>
+  </si>
+  <si>
+    <t>5410779145416</t>
+  </si>
+  <si>
+    <t>05-08-2023 18:16:15</t>
+  </si>
+  <si>
+    <t>shahin.stryker@fixedfor.com</t>
+  </si>
+  <si>
+    <t>599919</t>
+  </si>
+  <si>
+    <t>XV8aK#DFjiiT</t>
+  </si>
+  <si>
+    <t>2230400863990</t>
+  </si>
+  <si>
+    <t>05-08-2023 18:18:29</t>
+  </si>
+  <si>
+    <t>trenten.jakub@fixedfor.com</t>
+  </si>
+  <si>
+    <t>954665</t>
+  </si>
+  <si>
+    <t>0c5wuLxPgM/+</t>
+  </si>
+  <si>
+    <t>5204177118109</t>
+  </si>
+  <si>
+    <t>05-08-2023 18:20:20</t>
+  </si>
+  <si>
+    <t>dallin.karmon@fixedfor.com</t>
+  </si>
+  <si>
+    <t>452108</t>
+  </si>
+  <si>
+    <t>+a$=80v8YUGn</t>
+  </si>
+  <si>
+    <t>05-08-2023 18:22:10</t>
+  </si>
+  <si>
+    <t>kayson.jaiveon@fixedfor.com</t>
+  </si>
+  <si>
+    <t>970688</t>
+  </si>
+  <si>
+    <t>nf)SoD$jWaUE</t>
+  </si>
+  <si>
+    <t>giuRmwa+&gt;d2E</t>
+  </si>
+  <si>
+    <t>@7%NPSUg+bJR</t>
+  </si>
+  <si>
+    <t>-Xm*^&gt;Mhv#K?</t>
+  </si>
+  <si>
+    <t>)Z8W5*C?)N7/</t>
+  </si>
+  <si>
+    <t>u?wS^lNopJK^</t>
+  </si>
+  <si>
+    <t>05-08-2023 18:25:22</t>
+  </si>
+  <si>
+    <t>khale.rickie@fixedfor.com</t>
+  </si>
+  <si>
+    <t>644704</t>
+  </si>
+  <si>
+    <t>XL=lZs_2l$J#</t>
+  </si>
+  <si>
+    <t>05-08-2023 18:27:13</t>
+  </si>
+  <si>
+    <t>altair.sovereign@fixedfor.com</t>
+  </si>
+  <si>
+    <t>131293</t>
+  </si>
+  <si>
+    <t>vFVmYnyQKS%_</t>
+  </si>
+  <si>
+    <t>05-08-2023 18:29:05</t>
+  </si>
+  <si>
+    <t>saint.daric@fixedfor.com</t>
+  </si>
+  <si>
+    <t>291892</t>
+  </si>
+  <si>
+    <t>$Z&lt;f26&lt;u46V&lt;</t>
+  </si>
+  <si>
+    <t>0173105110605</t>
+  </si>
+  <si>
+    <t>05-08-2023 18:34:57</t>
+  </si>
+  <si>
+    <t>aidden.alexsander@fixedfor.com</t>
+  </si>
+  <si>
+    <t>750406</t>
+  </si>
+  <si>
+    <t>H=4M&amp;4O/0Z&lt;?</t>
+  </si>
+  <si>
+    <t>05-08-2023 18:35:55</t>
+  </si>
+  <si>
+    <t>johanan.azael@fixedfor.com</t>
+  </si>
+  <si>
+    <t>250043</t>
+  </si>
+  <si>
+    <t>S#^h%(i/vcn&gt;</t>
+  </si>
+  <si>
+    <t>05-08-2023 18:38:27</t>
+  </si>
+  <si>
+    <t>elek.benzion@fixedfor.com</t>
+  </si>
+  <si>
+    <t>833008</t>
+  </si>
+  <si>
+    <t>b6GGsCbWR?09</t>
+  </si>
+  <si>
+    <t>2693205557783</t>
+  </si>
+  <si>
+    <t>05-08-2023 18:51:29</t>
+  </si>
+  <si>
+    <t>rigden.thoryn@fixedfor.com</t>
+  </si>
+  <si>
+    <t>800756</t>
+  </si>
+  <si>
+    <t>jV)F8ZTB*hZO</t>
+  </si>
+  <si>
+    <t>7919677055714</t>
+  </si>
+  <si>
+    <t>05-08-2023 18:53:12</t>
+  </si>
+  <si>
+    <t>dayquan.ramel@fixedfor.com</t>
+  </si>
+  <si>
+    <t>436108</t>
+  </si>
+  <si>
+    <t>&lt;xqd2zPT9^DZ</t>
+  </si>
+  <si>
+    <t>1782978513810</t>
+  </si>
+  <si>
+    <t>05-08-2023 18:55:56</t>
+  </si>
+  <si>
+    <t>edric.devone@fixedfor.com</t>
+  </si>
+  <si>
+    <t>254578</t>
+  </si>
+  <si>
+    <t>Z3ca*&gt;IeROmO</t>
+  </si>
+  <si>
+    <t>4116375085002</t>
+  </si>
+  <si>
+    <t>05-08-2023 18:57:41</t>
+  </si>
+  <si>
+    <t>allistair.jarome@fixedfor.com</t>
+  </si>
+  <si>
+    <t>218611</t>
+  </si>
+  <si>
+    <t>lsn%a7w%U@Ma</t>
+  </si>
+  <si>
+    <t>0166875376104</t>
+  </si>
+  <si>
+    <t>05-08-2023 18:59:26</t>
+  </si>
+  <si>
+    <t>garyn.wasim@fixedfor.com</t>
+  </si>
+  <si>
+    <t>313064</t>
+  </si>
+  <si>
+    <t>y97$l4QBudKZ</t>
+  </si>
+  <si>
+    <t>4228813940832</t>
+  </si>
+  <si>
+    <t>05-08-2023 19:01:03</t>
+  </si>
+  <si>
+    <t>jaion.avik@fixedfor.com</t>
+  </si>
+  <si>
+    <t>109187</t>
+  </si>
+  <si>
+    <t>mcE*x^=y3%&amp;4</t>
+  </si>
+  <si>
+    <t>0352511660397</t>
+  </si>
+  <si>
+    <t>05-08-2023 19:08:49</t>
+  </si>
+  <si>
+    <t>devyn.bodhi@fixedfor.com</t>
+  </si>
+  <si>
+    <t>397306</t>
+  </si>
+  <si>
+    <t>fxJC)#XOR#&lt;%</t>
+  </si>
+  <si>
+    <t>9835652258667</t>
+  </si>
+  <si>
+    <t>05-08-2023 19:11:46</t>
+  </si>
+  <si>
+    <t>javeon.maurion@fixedfor.com</t>
+  </si>
+  <si>
+    <t>196485</t>
+  </si>
+  <si>
+    <t>5?&amp;nIt/&lt;OiEJ</t>
+  </si>
+  <si>
+    <t>05-08-2023 19:12:34</t>
+  </si>
+  <si>
+    <t>duvid.deonte@fixedfor.com</t>
+  </si>
+  <si>
+    <t>351100</t>
+  </si>
+  <si>
+    <t>KntuGAjCi*7E</t>
+  </si>
+  <si>
+    <t>05-08-2023 19:13:20</t>
+  </si>
+  <si>
+    <t>russ.kmari@fixedfor.com</t>
+  </si>
+  <si>
+    <t>600654</t>
+  </si>
+  <si>
+    <t>f+S6ZR7aSb_1</t>
+  </si>
+  <si>
+    <t>05-08-2023 19:14:13</t>
+  </si>
+  <si>
+    <t>zahair.kenyon@fixedfor.com</t>
+  </si>
+  <si>
+    <t>855719</t>
+  </si>
+  <si>
+    <t>M8Am5tyyZq!g</t>
+  </si>
+  <si>
+    <t>8339693915769</t>
+  </si>
+  <si>
+    <t>05-08-2023 19:16:44</t>
+  </si>
+  <si>
+    <t>tashawn.kishon@fixedfor.com</t>
+  </si>
+  <si>
+    <t>238003</t>
+  </si>
+  <si>
+    <t>oE1C5hpyS%tW</t>
+  </si>
+  <si>
+    <t>05-08-2023 19:17:32</t>
+  </si>
+  <si>
+    <t>ronan.sota@fixedfor.com</t>
+  </si>
+  <si>
+    <t>394025</t>
+  </si>
+  <si>
+    <t>aULs#UB&gt;6!1w</t>
+  </si>
+  <si>
+    <t>05-08-2023 20:20:48</t>
+  </si>
+  <si>
+    <t>jeyden.yony@fixedfor.com</t>
+  </si>
+  <si>
+    <t>551370</t>
+  </si>
+  <si>
+    <t>4sAtfHOL6ybt</t>
+  </si>
+  <si>
+    <t>05-08-2023 20:21:48</t>
+  </si>
+  <si>
+    <t>siaosi.rhyse@fixedfor.com</t>
+  </si>
+  <si>
+    <t>548242</t>
+  </si>
+  <si>
+    <t>a*rqcEG3kvv%</t>
+  </si>
+  <si>
+    <t>05-08-2023 20:24:41</t>
+  </si>
+  <si>
+    <t>kainalu.whitney@fixedfor.com</t>
+  </si>
+  <si>
+    <t>582721</t>
+  </si>
+  <si>
+    <t>wT(Hx#iC!e^J</t>
+  </si>
+  <si>
+    <t>7838877038771</t>
+  </si>
+  <si>
+    <t>05-08-2023 20:26:31</t>
+  </si>
+  <si>
+    <t>nile.leopoldo@fixedfor.com</t>
+  </si>
+  <si>
+    <t>321802</t>
+  </si>
+  <si>
+    <t>DP9r@R80-CFF</t>
+  </si>
+  <si>
+    <t>05-08-2023 20:34:17</t>
+  </si>
+  <si>
+    <t>albara.khadir@fixedfor.com</t>
+  </si>
+  <si>
+    <t>267849</t>
+  </si>
+  <si>
+    <t>$rCBg#Dh6opM</t>
+  </si>
+  <si>
+    <t>06-08-2023 23:57:14</t>
+  </si>
+  <si>
+    <t>davison.dekker@fixedfor.com</t>
+  </si>
+  <si>
+    <t>518460</t>
+  </si>
+  <si>
+    <t>%z1n_Lrtq$Yr</t>
+  </si>
+  <si>
+    <t>06-08-2023 23:58:42</t>
+  </si>
+  <si>
+    <t>everest.aamir@fixedfor.com</t>
+  </si>
+  <si>
+    <t>943256</t>
+  </si>
+  <si>
+    <t>hv0KKW$7I5(h</t>
+  </si>
+  <si>
+    <t>4194280331155</t>
+  </si>
+  <si>
+    <t>07-08-2023 18:59:10</t>
+  </si>
+  <si>
+    <t>jashawn.treyon@fixedfor.com</t>
+  </si>
+  <si>
+    <t>225993</t>
+  </si>
+  <si>
+    <t>xn^%SNG=R#04</t>
+  </si>
+  <si>
+    <t>ysjh)W/yjJl/</t>
+  </si>
+  <si>
+    <t>1531807827853</t>
+  </si>
+  <si>
+    <t>07-08-2023 19:14:34</t>
+  </si>
+  <si>
+    <t>xzavien.ananias@fixedfor.com</t>
+  </si>
+  <si>
+    <t>469770</t>
+  </si>
+  <si>
+    <t>BmSf-_1&gt;gze?</t>
+  </si>
+  <si>
+    <t>0211870900110</t>
+  </si>
+  <si>
+    <t>07-08-2023 19:34:52</t>
+  </si>
+  <si>
+    <t>jaceon.parsa@fixedfor.com</t>
+  </si>
+  <si>
+    <t>922898</t>
+  </si>
+  <si>
+    <t>)aXr(H&gt;u5L#x</t>
+  </si>
+  <si>
+    <t>4672420917051</t>
   </si>
 </sst>
 </file>
@@ -1259,22 +2195,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>263</v>
+        <v>595</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>284</v>
+        <v>593</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>262</v>
+        <v>594</v>
       </c>
       <c r="E2" s="0">
         <v>4</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>213</v>
+        <v>596</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>263</v>
+        <v>595</v>
       </c>
     </row>
   </sheetData>
